--- a/10_monomar.xlsx
+++ b/10_monomar.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="G11:I27"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,10 +442,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1.175E-7</v>
+        <v>4.0200000000000003E-8</v>
       </c>
       <c r="B3" s="3">
-        <v>6.6600000000000001E-8</v>
+        <v>1.1900000000000001E-8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
